--- a/data/data5_prep.xlsx
+++ b/data/data5_prep.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3457" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3459" uniqueCount="51">
   <si>
     <t>material_type</t>
   </si>
@@ -1198,8 +1198,8 @@
       <c r="C15">
         <v>267</v>
       </c>
-      <c r="D15">
-        <v>36.3</v>
+      <c r="D15" t="s">
+        <v>22</v>
       </c>
       <c r="E15">
         <v>64.7</v>
@@ -9743,6 +9743,9 @@
       <c r="A197" t="s">
         <v>20</v>
       </c>
+      <c r="B197">
+        <v>25</v>
+      </c>
       <c r="C197">
         <v>228.3</v>
       </c>
@@ -9798,6 +9801,9 @@
       </c>
       <c r="E198">
         <v>40</v>
+      </c>
+      <c r="F198" t="s">
+        <v>26</v>
       </c>
       <c r="G198" t="s">
         <v>36</v>
@@ -21958,7 +21964,7 @@
         <v>21</v>
       </c>
       <c r="B457">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C457">
         <v>273.4</v>
@@ -22286,6 +22292,9 @@
       <c r="A464" t="s">
         <v>21</v>
       </c>
+      <c r="B464">
+        <v>100</v>
+      </c>
       <c r="C464">
         <v>273.4</v>
       </c>
@@ -22757,7 +22766,7 @@
         <v>86</v>
       </c>
       <c r="C474">
-        <v>6.87</v>
+        <v>687</v>
       </c>
       <c r="D474">
         <v>31.3</v>
